--- a/compmech/ex8/output_2.xlsx
+++ b/compmech/ex8/output_2.xlsx
@@ -24,6 +24,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>近似関数の次数は3にするのが適当です。何故なら得られたデータにはノイズがあると考えられるためデータに近似しすぎた関数では実際の関数とは異なる可能性が大きくなるからです。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -96,7 +105,47 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>図１</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>m</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>＝３の近似曲線</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.265464233860048"/>
+          <c:y val="0.856481481481481"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -128,13 +177,26 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0418681127894033"/>
+          <c:y val="0.111388888888889"/>
+          <c:w val="0.806709355883044"/>
+          <c:h val="0.611411490230388"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>m = 3</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="31750" cap="rnd">
               <a:noFill/>
@@ -159,7 +221,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>output_2!$A$1:$A$81</c:f>
+              <c:f>output_2!$B$1:$B$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -411,7 +473,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>output_2!$B$1:$B$81</c:f>
+              <c:f>output_2!$C$1:$C$81</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="81"/>
@@ -664,10 +726,13 @@
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="3"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>sample</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="31750" cap="rnd">
+            <a:ln w="25400" cap="rnd">
               <a:noFill/>
               <a:round/>
             </a:ln>
@@ -678,11 +743,11 @@
             <c:size val="5"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
               <a:ln w="9525">
                 <a:solidFill>
-                  <a:schemeClr val="accent2"/>
+                  <a:schemeClr val="accent4"/>
                 </a:solidFill>
               </a:ln>
               <a:effectLst/>
@@ -690,251 +755,35 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>output_2!$A$1:$A$81</c:f>
+              <c:f>output_2!$G$1:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
                   <c:v>-2.0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-1.95</c:v>
+                  <c:v>-1.5</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-1.9</c:v>
+                  <c:v>-1.0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-1.85</c:v>
+                  <c:v>-0.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-1.8</c:v>
+                  <c:v>0.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-1.75</c:v>
+                  <c:v>0.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-1.7</c:v>
+                  <c:v>1.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.65</c:v>
+                  <c:v>1.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-1.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.55</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.45</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-1.35</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1.3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1.15</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1.1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.05</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.95</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.85</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.75</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.65</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.55</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.45</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.35</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.25</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.15</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.55</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.15</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.85</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="80">
                   <c:v>2.0</c:v>
                 </c:pt>
               </c:numCache>
@@ -942,783 +791,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>output_2!$C$1:$C$81</c:f>
+              <c:f>output_2!$H$1:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
+                <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>-8.124622</c:v>
+                  <c:v>-8.1624</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-6.906444</c:v>
+                  <c:v>0.4591</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-5.778472</c:v>
+                  <c:v>3.5195</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-4.736878</c:v>
+                  <c:v>0.8775</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-3.777929</c:v>
+                  <c:v>1.4589</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-2.897994</c:v>
+                  <c:v>-1.3004</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-2.093536</c:v>
+                  <c:v>-2.8019</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-1.361113</c:v>
+                  <c:v>1.7083</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.697375</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.099063</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.436996</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.913885</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.334606</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.702077</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.019135</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.288542</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.512978</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.695053</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.837303</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.942192</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.012117</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.049408</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>3.05633</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>3.035085</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.987815</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.916602</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.823473</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>2.710397</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>2.579293</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>2.432028</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>2.27042</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>2.096239</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.91121</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.717018</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.515302</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.307665</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.095671</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.880851</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.664701</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.448685</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.234238</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.022769</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.18434</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.385729</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.580063</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.766022</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.942306</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-1.107632</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-1.260728</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-1.400335</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-1.525205</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-1.634095</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-1.72577</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-1.798999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-1.852552</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-1.885199</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-1.895709</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-1.882845</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-1.845367</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-1.782024</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-1.691559</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-1.572698</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-1.424159</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-1.244639</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-1.032822</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-0.787368</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-0.50692</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-0.190093</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.164522</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.558359</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.992885</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.469597</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.990024</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>2.555733</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>3.168327</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>3.829448</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>4.540779</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>5.304047</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>6.121024</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>6.993529</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>7.92343</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:spPr>
-            <a:ln w="31750" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>output_2!$A$1:$A$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
-                <c:pt idx="0">
-                  <c:v>-2.0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-1.95</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-1.9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-1.85</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-1.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-1.75</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-1.7</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-1.65</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.6</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-1.55</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>-1.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>-1.45</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>-1.4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>-1.35</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>-1.3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>-1.25</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>-1.2</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>-1.15</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>-1.1</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>-1.05</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>-1.0</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>-0.95</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>-0.9</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>-0.85</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>-0.8</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>-0.75</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>-0.7</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>-0.65</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>-0.6</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>-0.55</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>-0.45</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>-0.4</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.35</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.3</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.25</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.15</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.1</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.05</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.0</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.05</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.1</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.15</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.25</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.3</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.35</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.45</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.55</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.65</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.75</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.85</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.95</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.0</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.05</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.1</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.15</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.25</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.3</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.35</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.4</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.45</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.5</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.55</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.6</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.7</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.8</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.85</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.9</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.95</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>2.0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>output_2!$D$1:$D$81</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="81"/>
-                <c:pt idx="0">
-                  <c:v>-8.172359</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>-7.818106</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>-7.170887</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>-6.319638</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>-5.338988</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>-4.290703</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>-3.225056</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>-2.182104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>-1.192878</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>-0.280504</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.538769</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.254602</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.861687</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.358926</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.748684</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>3.036114</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>3.228532</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.334862</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>3.365144</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>3.330081</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>3.24066</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>3.107809</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.94211</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.753553</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.551342</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.343732</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>2.137911</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.939916</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.754584</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.585536</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.43518</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.304754</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.194386</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.103172</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.029276</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.970054</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.922175</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.88177</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.844579</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.80611</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.761801</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.70718</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.638031</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.550548</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.44149</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.308322</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.149353</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.036149</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.247853</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.484275</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-0.74272</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-1.019238</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-1.308605</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-1.604342</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-1.898755</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-2.183013</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-2.44726</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-2.680765</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-2.872116</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-3.00945</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-3.08074</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-3.074115</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-2.978245</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-2.782772</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-2.478793</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-2.059413</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-1.520341</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-0.860569</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-0.083101</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.804247</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.787969</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>2.847925</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>3.956323</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>5.076618</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>6.162333</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7.155798</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7.9868</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>8.571153000000001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>8.809171</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>8.584046</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>7.760141</c:v>
+                  <c:v>7.7701</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1733,13 +835,15 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="1015564240"/>
-        <c:axId val="1015561920"/>
+        <c:axId val="1333974768"/>
+        <c:axId val="1333977328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="1015564240"/>
+        <c:axId val="1333974768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="2.0"/>
+          <c:min val="-2.0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1793,12 +897,12 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1015561920"/>
+        <c:crossAx val="1333977328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1015561920"/>
+        <c:axId val="1333977328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1854,7 +958,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1015564240"/>
+        <c:crossAx val="1333974768"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1867,8 +971,2067 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.859451167825812"/>
+          <c:y val="0.202105934674832"/>
+          <c:w val="0.114608494949804"/>
+          <c:h val="0.174769612131817"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>図２</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>m</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>＝５の近似曲線</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.302623127175867"/>
+          <c:y val="0.791666666666667"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0585347769028871"/>
+          <c:y val="0.105925925925926"/>
+          <c:w val="0.796167029232817"/>
+          <c:h val="0.63076334208224"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>m = 5</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output_2!$B$1:$B$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>-2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.55</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.15</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output_2!$D$1:$D$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>-8.124622</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-6.906444</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-5.778472</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-4.736878</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-3.777929</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-2.897994</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.093536</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.361113</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.697375</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.099063</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.436996</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.913885</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.334606</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.702077</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.019135</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.288542</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.512978</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.695053</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.837303</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>2.942192</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.012117</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.049408</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>3.05633</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>3.035085</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.987815</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.916602</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.823473</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.710397</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.579293</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.432028</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.27042</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.096239</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.91121</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.717018</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.515302</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.307665</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.095671</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.880851</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.664701</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.448685</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.234238</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.022769</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.18434</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.385729</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.580063</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.766022</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.942306</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-1.107632</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-1.260728</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-1.400335</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-1.525205</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.634095</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.72577</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.798999</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.852552</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-1.885199</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-1.895709</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-1.882845</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-1.845367</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-1.782024</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-1.691559</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-1.572698</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-1.424159</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-1.244639</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-1.032822</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.787368</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.50692</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.190093</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.164522</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.558359</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.992885</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.469597</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.990024</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>2.555733</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>3.168327</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>3.829448</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>4.540779</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>5.304047</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>6.121024</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>6.993529</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.92343</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>sample</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output_2!$G$1:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output_2!$H$1:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-8.1624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4591</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.3004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.8019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7083</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1369999184"/>
+        <c:axId val="1370001056"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1369999184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.0"/>
+          <c:min val="-2.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1370001056"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1370001056"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1369999184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.867003288466795"/>
+          <c:y val="0.260184456109653"/>
+          <c:w val="0.114807021506802"/>
+          <c:h val="0.174769612131817"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>図３</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>m</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US" sz="1400" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>＝７の近似曲線</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+          <a:p>
+            <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP" altLang="en-US" sz="1400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.29888751030286"/>
+          <c:y val="0.810961650627005"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" wrap="square" anchor="ctr" anchorCtr="0"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.0528115573589097"/>
+          <c:y val="0.0667228058294134"/>
+          <c:w val="0.798732104743103"/>
+          <c:h val="0.643997156605424"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>m = 7</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="31750" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output_2!$B$1:$B$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>-2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.9</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-1.85</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-1.8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.75</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-1.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-1.65</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-1.55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-1.45</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-1.4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-1.35</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-1.3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-1.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-1.2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-1.15</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-1.1</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-1.05</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.95</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.9</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.85</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.8</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.75</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.7</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.65</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.6</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.55</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.45</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.35</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.3</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.25</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.15</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.1</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.05</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.05</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.15</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.35</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.55</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.65</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.85</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.05</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.1</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.15</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.25</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.35</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.45</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.55</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.6</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.65</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.7</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.8</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.85</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.9</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.95</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output_2!$E$1:$E$81</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="81"/>
+                <c:pt idx="0">
+                  <c:v>-8.172359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-7.818106</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-7.170887</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-6.319638</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-5.338988</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-4.290703</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-3.225056</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-2.182104</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-1.192878</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.280504</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.538769</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.254602</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.861687</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.358926</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.748684</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>3.036114</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.228532</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.334862</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.365144</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>3.330081</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>3.24066</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>3.107809</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.94211</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.753553</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>2.551342</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>2.343732</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.137911</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.939916</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.754584</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.585536</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.43518</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.304754</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.194386</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.103172</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.029276</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.970054</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.922175</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.88177</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.844579</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.80611</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.761801</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.70718</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.638031</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.550548</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.44149</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.308322</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.149353</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.036149</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.247853</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.484275</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.74272</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-1.019238</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-1.308605</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-1.604342</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-1.898755</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-2.183013</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-2.44726</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-2.680765</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-2.872116</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-3.00945</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-3.08074</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-3.074115</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-2.978245</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-2.782772</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-2.478793</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-2.059413</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-1.520341</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.860569</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.083101</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.804247</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.787969</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>2.847925</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>3.956323</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>5.076618</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.162333</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.155798</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.9868</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.571153000000001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.809171</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>8.584046</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.760141</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>sample</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>output_2!$G$1:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-2.0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-1.0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>output_2!$H$1:$H$9</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="9"/>
+                <c:pt idx="0">
+                  <c:v>-8.1624</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.4591</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5195</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8775</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4589</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-1.3004</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-2.8019</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7083</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.7701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1371620736"/>
+        <c:axId val="1371623040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1371620736"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="2.0"/>
+          <c:min val="-2.0"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1371623040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1371623040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1371620736"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.863862314627838"/>
+          <c:y val="0.218517789442986"/>
+          <c:w val="0.115266305252151"/>
+          <c:h val="0.174769612131817"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1975,6 +3138,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2491,20 +3734,1052 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>184150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>584200</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1022350</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>44450</xdr:rowOff>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2518,6 +4793,70 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>668867</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>143933</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1035051</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>93133</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="グラフ 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>675640</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>1022350</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="グラフ 3"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2789,1145 +5128,1200 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D81"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection sqref="A1:D81"/>
-    </sheetView>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="12" defaultRowHeight="20" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
         <v>-2</v>
       </c>
-      <c r="B1">
+      <c r="C1">
         <v>-7.8261390000000004</v>
       </c>
-      <c r="C1">
+      <c r="D1">
         <v>-8.1246220000000005</v>
       </c>
-      <c r="D1">
+      <c r="E1">
         <v>-8.1723590000000002</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="G1">
+        <v>-2</v>
+      </c>
+      <c r="H1">
+        <v>-8.1623999999999999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B2">
         <v>-1.95</v>
       </c>
-      <c r="B2">
+      <c r="C2">
         <v>-6.7867430000000004</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>-6.9064439999999996</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>-7.8181060000000002</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="G2">
+        <v>-1.5</v>
+      </c>
+      <c r="H2">
+        <v>0.45910000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B3">
         <v>-1.9</v>
       </c>
-      <c r="B3">
+      <c r="C3">
         <v>-5.8101149999999997</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>-5.7784719999999998</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>-7.1708869999999996</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="G3">
+        <v>-1</v>
+      </c>
+      <c r="H3">
+        <v>3.5194999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B4">
         <v>-1.85</v>
       </c>
-      <c r="B4">
+      <c r="C4">
         <v>-4.8946620000000003</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>-4.7368779999999999</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>-6.3196380000000003</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="G4">
+        <v>-0.5</v>
+      </c>
+      <c r="H4">
+        <v>0.87749999999999995</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B5">
         <v>-1.8</v>
       </c>
-      <c r="B5">
+      <c r="C5">
         <v>-4.0387849999999998</v>
       </c>
-      <c r="C5">
+      <c r="D5">
         <v>-3.7779289999999999</v>
       </c>
-      <c r="D5">
+      <c r="E5">
         <v>-5.3389879999999996</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1.4589000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B6">
         <v>-1.75</v>
       </c>
-      <c r="B6">
+      <c r="C6">
         <v>-3.240888</v>
       </c>
-      <c r="C6">
+      <c r="D6">
         <v>-2.8979940000000002</v>
       </c>
-      <c r="D6">
+      <c r="E6">
         <v>-4.2907029999999997</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="G6">
+        <v>0.5</v>
+      </c>
+      <c r="H6">
+        <v>-1.3004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B7">
         <v>-1.7</v>
       </c>
-      <c r="B7">
+      <c r="C7">
         <v>-2.4993759999999998</v>
       </c>
-      <c r="C7">
+      <c r="D7">
         <v>-2.0935359999999998</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>-3.2250559999999999</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="G7">
+        <v>1</v>
+      </c>
+      <c r="H7">
+        <v>-2.8018999999999998</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B8">
         <v>-1.65</v>
       </c>
-      <c r="B8">
+      <c r="C8">
         <v>-1.812651</v>
       </c>
-      <c r="C8">
+      <c r="D8">
         <v>-1.361113</v>
       </c>
-      <c r="D8">
+      <c r="E8">
         <v>-2.1821039999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="G8">
+        <v>1.5</v>
+      </c>
+      <c r="H8">
+        <v>1.7082999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B9">
         <v>-1.6</v>
       </c>
-      <c r="B9">
+      <c r="C9">
         <v>-1.179117</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>-0.69737499999999997</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-1.1928780000000001</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="G9">
+        <v>2</v>
+      </c>
+      <c r="H9">
+        <v>7.7701000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B10">
         <v>-1.55</v>
       </c>
-      <c r="B10">
+      <c r="C10">
         <v>-0.59717799999999999</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-9.9062999999999998E-2</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>-0.28050399999999998</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A11">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B11">
         <v>-1.5</v>
       </c>
-      <c r="B11">
+      <c r="C11">
         <v>-6.5238000000000004E-2</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>0.436996</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>0.53876900000000005</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A12">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B12">
         <v>-1.45</v>
       </c>
-      <c r="B12">
+      <c r="C12">
         <v>0.41830099999999998</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>0.91388499999999995</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>1.254602</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A13">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B13">
         <v>-1.4</v>
       </c>
-      <c r="B13">
+      <c r="C13">
         <v>0.85503300000000004</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>1.334606</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>1.8616870000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A14">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B14">
         <v>-1.35</v>
       </c>
-      <c r="B14">
+      <c r="C14">
         <v>1.2465569999999999</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>1.7020770000000001</v>
       </c>
-      <c r="D14">
+      <c r="E14">
         <v>2.3589259999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A15">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B15">
         <v>-1.3</v>
       </c>
-      <c r="B15">
+      <c r="C15">
         <v>1.594468</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>2.0191349999999999</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>2.7486839999999999</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A16">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="B16">
         <v>-1.25</v>
       </c>
-      <c r="B16">
+      <c r="C16">
         <v>1.900363</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>2.2885420000000001</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>3.036114</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17">
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17">
         <v>-1.2</v>
       </c>
-      <c r="B17">
+      <c r="C17">
         <v>2.1658379999999999</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>2.5129779999999999</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>3.228532</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A18">
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18">
         <v>-1.1499999999999999</v>
       </c>
-      <c r="B18">
+      <c r="C18">
         <v>2.3924889999999999</v>
       </c>
-      <c r="C18">
+      <c r="D18">
         <v>2.6950530000000001</v>
       </c>
-      <c r="D18">
+      <c r="E18">
         <v>3.3348620000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19">
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19">
         <v>-1.1000000000000001</v>
       </c>
-      <c r="B19">
+      <c r="C19">
         <v>2.5819130000000001</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>2.8373029999999999</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>3.3651439999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20">
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20">
         <v>-1.05</v>
       </c>
-      <c r="B20">
+      <c r="C20">
         <v>2.7357070000000001</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>2.9421919999999999</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>3.3300809999999998</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21">
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21">
         <v>-1</v>
       </c>
-      <c r="B21">
+      <c r="C21">
         <v>2.8554659999999998</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>3.0121169999999999</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>3.2406600000000001</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22">
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22">
         <v>-0.95</v>
       </c>
-      <c r="B22">
+      <c r="C22">
         <v>2.942787</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>3.0494080000000001</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>3.107809</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23">
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23">
         <v>-0.9</v>
       </c>
-      <c r="B23">
+      <c r="C23">
         <v>2.9992670000000001</v>
       </c>
-      <c r="C23">
+      <c r="D23">
         <v>3.05633</v>
       </c>
-      <c r="D23">
+      <c r="E23">
         <v>2.94211</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24">
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24">
         <v>-0.85</v>
       </c>
-      <c r="B24">
+      <c r="C24">
         <v>3.0265019999999998</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>3.035085</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>2.7535530000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25">
         <v>-0.8</v>
       </c>
-      <c r="B25">
+      <c r="C25">
         <v>3.0260889999999998</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>2.9878149999999999</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>2.551342</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26">
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26">
         <v>-0.75</v>
       </c>
-      <c r="B26">
+      <c r="C26">
         <v>2.9996230000000002</v>
       </c>
-      <c r="C26">
+      <c r="D26">
         <v>2.9166020000000001</v>
       </c>
-      <c r="D26">
+      <c r="E26">
         <v>2.3437320000000001</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27">
         <v>-0.7</v>
       </c>
-      <c r="B27">
+      <c r="C27">
         <v>2.9487009999999998</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>2.8234729999999999</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>2.1379109999999999</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28">
         <v>-0.65</v>
       </c>
-      <c r="B28">
+      <c r="C28">
         <v>2.8749199999999999</v>
       </c>
-      <c r="C28">
+      <c r="D28">
         <v>2.7103969999999999</v>
       </c>
-      <c r="D28">
+      <c r="E28">
         <v>1.939916</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29">
         <v>-0.6</v>
       </c>
-      <c r="B29">
+      <c r="C29">
         <v>2.7798759999999998</v>
       </c>
-      <c r="C29">
+      <c r="D29">
         <v>2.5792929999999998</v>
       </c>
-      <c r="D29">
+      <c r="E29">
         <v>1.7545839999999999</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30">
         <v>-0.55000000000000004</v>
       </c>
-      <c r="B30">
+      <c r="C30">
         <v>2.6651660000000001</v>
       </c>
-      <c r="C30">
+      <c r="D30">
         <v>2.4320279999999999</v>
       </c>
-      <c r="D30">
+      <c r="E30">
         <v>1.5855360000000001</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31">
         <v>-0.5</v>
       </c>
-      <c r="B31">
+      <c r="C31">
         <v>2.5323850000000001</v>
       </c>
-      <c r="C31">
+      <c r="D31">
         <v>2.2704200000000001</v>
       </c>
-      <c r="D31">
+      <c r="E31">
         <v>1.4351799999999999</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32">
         <v>-0.45</v>
       </c>
-      <c r="B32">
+      <c r="C32">
         <v>2.3831310000000001</v>
       </c>
-      <c r="C32">
+      <c r="D32">
         <v>2.0962390000000002</v>
       </c>
-      <c r="D32">
+      <c r="E32">
         <v>1.304754</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33">
         <v>-0.4</v>
       </c>
-      <c r="B33">
+      <c r="C33">
         <v>2.2189990000000002</v>
       </c>
-      <c r="C33">
+      <c r="D33">
         <v>1.9112100000000001</v>
       </c>
-      <c r="D33">
+      <c r="E33">
         <v>1.1943859999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34">
         <v>-0.35</v>
       </c>
-      <c r="B34">
+      <c r="C34">
         <v>2.0415869999999998</v>
       </c>
-      <c r="C34">
+      <c r="D34">
         <v>1.7170179999999999</v>
       </c>
-      <c r="D34">
+      <c r="E34">
         <v>1.103172</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35">
         <v>-0.3</v>
       </c>
-      <c r="B35">
+      <c r="C35">
         <v>1.85249</v>
       </c>
-      <c r="C35">
+      <c r="D35">
         <v>1.5153019999999999</v>
       </c>
-      <c r="D35">
+      <c r="E35">
         <v>1.0292760000000001</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36">
         <v>-0.25</v>
       </c>
-      <c r="B36">
+      <c r="C36">
         <v>1.653305</v>
       </c>
-      <c r="C36">
+      <c r="D36">
         <v>1.3076650000000001</v>
       </c>
-      <c r="D36">
+      <c r="E36">
         <v>0.97005399999999997</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37">
         <v>-0.2</v>
       </c>
-      <c r="B37">
+      <c r="C37">
         <v>1.4456290000000001</v>
       </c>
-      <c r="C37">
+      <c r="D37">
         <v>1.0956710000000001</v>
       </c>
-      <c r="D37">
+      <c r="E37">
         <v>0.92217499999999997</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38">
         <v>-0.15</v>
       </c>
-      <c r="B38">
+      <c r="C38">
         <v>1.2310570000000001</v>
       </c>
-      <c r="C38">
+      <c r="D38">
         <v>0.88085100000000005</v>
       </c>
-      <c r="D38">
+      <c r="E38">
         <v>0.88177000000000005</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39">
         <v>-0.1</v>
       </c>
-      <c r="B39">
+      <c r="C39">
         <v>1.0111859999999999</v>
       </c>
-      <c r="C39">
+      <c r="D39">
         <v>0.66470099999999999</v>
       </c>
-      <c r="D39">
+      <c r="E39">
         <v>0.84457899999999997</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40">
         <v>-0.05</v>
       </c>
-      <c r="B40">
+      <c r="C40">
         <v>0.78761300000000001</v>
       </c>
-      <c r="C40">
+      <c r="D40">
         <v>0.448685</v>
       </c>
-      <c r="D40">
+      <c r="E40">
         <v>0.80610999999999999</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41">
         <v>0</v>
       </c>
-      <c r="B41">
+      <c r="C41">
         <v>0.56193400000000004</v>
       </c>
-      <c r="C41">
+      <c r="D41">
         <v>0.234238</v>
       </c>
-      <c r="D41">
+      <c r="E41">
         <v>0.76180099999999995</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42">
         <v>0.05</v>
       </c>
-      <c r="B42">
+      <c r="C42">
         <v>0.33574599999999999</v>
       </c>
-      <c r="C42">
+      <c r="D42">
         <v>2.2769000000000001E-2</v>
       </c>
-      <c r="D42">
+      <c r="E42">
         <v>0.70718000000000003</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43">
         <v>0.1</v>
       </c>
-      <c r="B43">
+      <c r="C43">
         <v>0.11064400000000001</v>
       </c>
-      <c r="C43">
+      <c r="D43">
         <v>-0.18434</v>
       </c>
-      <c r="D43">
+      <c r="E43">
         <v>0.63803100000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44">
         <v>0.15</v>
       </c>
-      <c r="B44">
+      <c r="C44">
         <v>-0.111775</v>
       </c>
-      <c r="C44">
+      <c r="D44">
         <v>-0.38572899999999999</v>
       </c>
-      <c r="D44">
+      <c r="E44">
         <v>0.55054800000000004</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45">
         <v>0.2</v>
       </c>
-      <c r="B45">
+      <c r="C45">
         <v>-0.32991300000000001</v>
       </c>
-      <c r="C45">
+      <c r="D45">
         <v>-0.580063</v>
       </c>
-      <c r="D45">
+      <c r="E45">
         <v>0.44148999999999999</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A46">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46">
         <v>0.25</v>
       </c>
-      <c r="B46">
+      <c r="C46">
         <v>-0.54217599999999999</v>
       </c>
-      <c r="C46">
+      <c r="D46">
         <v>-0.76602199999999998</v>
       </c>
-      <c r="D46">
+      <c r="E46">
         <v>0.30832199999999998</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A47">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47">
         <v>0.3</v>
       </c>
-      <c r="B47">
+      <c r="C47">
         <v>-0.74696600000000002</v>
       </c>
-      <c r="C47">
+      <c r="D47">
         <v>-0.94230599999999998</v>
       </c>
-      <c r="D47">
+      <c r="E47">
         <v>0.14935300000000001</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A48">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48">
         <v>0.35</v>
       </c>
-      <c r="B48">
+      <c r="C48">
         <v>-0.94268799999999997</v>
       </c>
-      <c r="C48">
+      <c r="D48">
         <v>-1.1076319999999999</v>
       </c>
-      <c r="D48">
+      <c r="E48">
         <v>-3.6149000000000001E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49">
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49">
         <v>0.4</v>
       </c>
-      <c r="B49">
+      <c r="C49">
         <v>-1.1277440000000001</v>
       </c>
-      <c r="C49">
+      <c r="D49">
         <v>-1.2607280000000001</v>
       </c>
-      <c r="D49">
+      <c r="E49">
         <v>-0.24785299999999999</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50">
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50">
         <v>0.45</v>
       </c>
-      <c r="B50">
+      <c r="C50">
         <v>-1.300538</v>
       </c>
-      <c r="C50">
+      <c r="D50">
         <v>-1.4003350000000001</v>
       </c>
-      <c r="D50">
+      <c r="E50">
         <v>-0.48427500000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51">
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51">
         <v>0.5</v>
       </c>
-      <c r="B51">
+      <c r="C51">
         <v>-1.4594739999999999</v>
       </c>
-      <c r="C51">
+      <c r="D51">
         <v>-1.5252049999999999</v>
       </c>
-      <c r="D51">
+      <c r="E51">
         <v>-0.74272000000000005</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52">
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52">
         <v>0.55000000000000004</v>
       </c>
-      <c r="B52">
+      <c r="C52">
         <v>-1.6029549999999999</v>
       </c>
-      <c r="C52">
+      <c r="D52">
         <v>-1.6340950000000001</v>
       </c>
-      <c r="D52">
+      <c r="E52">
         <v>-1.0192380000000001</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53">
+    <row r="53" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B53">
         <v>0.6</v>
       </c>
-      <c r="B53">
+      <c r="C53">
         <v>-1.7293860000000001</v>
       </c>
-      <c r="C53">
+      <c r="D53">
         <v>-1.72577</v>
       </c>
-      <c r="D53">
+      <c r="E53">
         <v>-1.308605</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54">
+    <row r="54" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B54">
         <v>0.65</v>
       </c>
-      <c r="B54">
+      <c r="C54">
         <v>-1.8371690000000001</v>
       </c>
-      <c r="C54">
+      <c r="D54">
         <v>-1.798999</v>
       </c>
-      <c r="D54">
+      <c r="E54">
         <v>-1.6043419999999999</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55">
+    <row r="55" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B55">
         <v>0.7</v>
       </c>
-      <c r="B55">
+      <c r="C55">
         <v>-1.9247080000000001</v>
       </c>
-      <c r="C55">
+      <c r="D55">
         <v>-1.852552</v>
       </c>
-      <c r="D55">
+      <c r="E55">
         <v>-1.898755</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56">
+    <row r="56" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B56">
         <v>0.75</v>
       </c>
-      <c r="B56">
+      <c r="C56">
         <v>-1.990407</v>
       </c>
-      <c r="C56">
+      <c r="D56">
         <v>-1.8851990000000001</v>
       </c>
-      <c r="D56">
+      <c r="E56">
         <v>-2.1830129999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57">
+    <row r="57" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B57">
         <v>0.8</v>
       </c>
-      <c r="B57">
+      <c r="C57">
         <v>-2.03267</v>
       </c>
-      <c r="C57">
+      <c r="D57">
         <v>-1.8957090000000001</v>
       </c>
-      <c r="D57">
+      <c r="E57">
         <v>-2.44726</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58">
+    <row r="58" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B58">
         <v>0.85</v>
       </c>
-      <c r="B58">
+      <c r="C58">
         <v>-2.0498989999999999</v>
       </c>
-      <c r="C58">
+      <c r="D58">
         <v>-1.8828450000000001</v>
       </c>
-      <c r="D58">
+      <c r="E58">
         <v>-2.6807650000000001</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59">
+    <row r="59" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B59">
         <v>0.9</v>
       </c>
-      <c r="B59">
+      <c r="C59">
         <v>-2.0404990000000001</v>
       </c>
-      <c r="C59">
+      <c r="D59">
         <v>-1.845367</v>
       </c>
-      <c r="D59">
+      <c r="E59">
         <v>-2.8721160000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60">
+    <row r="60" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B60">
         <v>0.95</v>
       </c>
-      <c r="B60">
+      <c r="C60">
         <v>-2.0028730000000001</v>
       </c>
-      <c r="C60">
+      <c r="D60">
         <v>-1.7820240000000001</v>
       </c>
-      <c r="D60">
+      <c r="E60">
         <v>-3.0094500000000002</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61">
+    <row r="61" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B61">
         <v>1</v>
       </c>
-      <c r="B61">
+      <c r="C61">
         <v>-1.935425</v>
       </c>
-      <c r="C61">
+      <c r="D61">
         <v>-1.691559</v>
       </c>
-      <c r="D61">
+      <c r="E61">
         <v>-3.08074</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62">
+    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B62">
         <v>1.05</v>
       </c>
-      <c r="B62">
+      <c r="C62">
         <v>-1.8365579999999999</v>
       </c>
-      <c r="C62">
+      <c r="D62">
         <v>-1.5726979999999999</v>
       </c>
-      <c r="D62">
+      <c r="E62">
         <v>-3.0741149999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63">
+    <row r="63" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B63">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B63">
+      <c r="C63">
         <v>-1.7046760000000001</v>
       </c>
-      <c r="C63">
+      <c r="D63">
         <v>-1.424159</v>
       </c>
-      <c r="D63">
+      <c r="E63">
         <v>-2.9782449999999998</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64">
+    <row r="64" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B64">
         <v>1.1499999999999999</v>
       </c>
-      <c r="B64">
+      <c r="C64">
         <v>-1.5381830000000001</v>
       </c>
-      <c r="C64">
+      <c r="D64">
         <v>-1.2446390000000001</v>
       </c>
-      <c r="D64">
+      <c r="E64">
         <v>-2.782772</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65">
+    <row r="65" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B65">
         <v>1.2</v>
       </c>
-      <c r="B65">
+      <c r="C65">
         <v>-1.3354809999999999</v>
       </c>
-      <c r="C65">
+      <c r="D65">
         <v>-1.0328219999999999</v>
       </c>
-      <c r="D65">
+      <c r="E65">
         <v>-2.478793</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66">
+    <row r="66" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B66">
         <v>1.25</v>
       </c>
-      <c r="B66">
+      <c r="C66">
         <v>-1.094975</v>
       </c>
-      <c r="C66">
+      <c r="D66">
         <v>-0.78736799999999996</v>
       </c>
-      <c r="D66">
+      <c r="E66">
         <v>-2.0594130000000002</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67">
+    <row r="67" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B67">
         <v>1.3</v>
       </c>
-      <c r="B67">
+      <c r="C67">
         <v>-0.81506900000000004</v>
       </c>
-      <c r="C67">
+      <c r="D67">
         <v>-0.50692000000000004</v>
       </c>
-      <c r="D67">
+      <c r="E67">
         <v>-1.5203409999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68">
+    <row r="68" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B68">
         <v>1.35</v>
       </c>
-      <c r="B68">
+      <c r="C68">
         <v>-0.49416500000000002</v>
       </c>
-      <c r="C68">
+      <c r="D68">
         <v>-0.19009300000000001</v>
       </c>
-      <c r="D68">
+      <c r="E68">
         <v>-0.86056900000000003</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69">
+    <row r="69" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B69">
         <v>1.4</v>
       </c>
-      <c r="B69">
+      <c r="C69">
         <v>-0.13066700000000001</v>
       </c>
-      <c r="C69">
+      <c r="D69">
         <v>0.164522</v>
       </c>
-      <c r="D69">
+      <c r="E69">
         <v>-8.3100999999999994E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70">
+    <row r="70" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B70">
         <v>1.45</v>
       </c>
-      <c r="B70">
+      <c r="C70">
         <v>0.27701999999999999</v>
       </c>
-      <c r="C70">
+      <c r="D70">
         <v>0.55835900000000005</v>
       </c>
-      <c r="D70">
+      <c r="E70">
         <v>0.80424700000000005</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71">
+    <row r="71" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B71">
         <v>1.5</v>
       </c>
-      <c r="B71">
+      <c r="C71">
         <v>0.73049399999999998</v>
       </c>
-      <c r="C71">
+      <c r="D71">
         <v>0.99288500000000002</v>
       </c>
-      <c r="D71">
+      <c r="E71">
         <v>1.7879689999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72">
+    <row r="72" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B72">
         <v>1.55</v>
       </c>
-      <c r="B72">
+      <c r="C72">
         <v>1.2313510000000001</v>
       </c>
-      <c r="C72">
+      <c r="D72">
         <v>1.469597</v>
       </c>
-      <c r="D72">
+      <c r="E72">
         <v>2.847925</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73">
+    <row r="73" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B73">
         <v>1.6</v>
       </c>
-      <c r="B73">
+      <c r="C73">
         <v>1.7811870000000001</v>
       </c>
-      <c r="C73">
+      <c r="D73">
         <v>1.990024</v>
       </c>
-      <c r="D73">
+      <c r="E73">
         <v>3.9563229999999998</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74">
+    <row r="74" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B74">
         <v>1.65</v>
       </c>
-      <c r="B74">
+      <c r="C74">
         <v>2.3815979999999999</v>
       </c>
-      <c r="C74">
+      <c r="D74">
         <v>2.555733</v>
       </c>
-      <c r="D74">
+      <c r="E74">
         <v>5.0766179999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75">
+    <row r="75" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B75">
         <v>1.7</v>
       </c>
-      <c r="B75">
+      <c r="C75">
         <v>3.0341819999999999</v>
       </c>
-      <c r="C75">
+      <c r="D75">
         <v>3.1683270000000001</v>
       </c>
-      <c r="D75">
+      <c r="E75">
         <v>6.1623330000000003</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76">
+    <row r="76" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B76">
         <v>1.75</v>
       </c>
-      <c r="B76">
+      <c r="C76">
         <v>3.7405339999999998</v>
       </c>
-      <c r="C76">
+      <c r="D76">
         <v>3.8294480000000002</v>
       </c>
-      <c r="D76">
+      <c r="E76">
         <v>7.1557979999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77">
+    <row r="77" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B77">
         <v>1.8</v>
       </c>
-      <c r="B77">
+      <c r="C77">
         <v>4.5022510000000002</v>
       </c>
-      <c r="C77">
+      <c r="D77">
         <v>4.5407789999999997</v>
       </c>
-      <c r="D77">
+      <c r="E77">
         <v>7.9867999999999997</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78">
+    <row r="78" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B78">
         <v>1.85</v>
       </c>
-      <c r="B78">
+      <c r="C78">
         <v>5.3209299999999997</v>
       </c>
-      <c r="C78">
+      <c r="D78">
         <v>5.3040469999999997</v>
       </c>
-      <c r="D78">
+      <c r="E78">
         <v>8.5711530000000007</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79">
+    <row r="79" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B79">
         <v>1.9</v>
       </c>
-      <c r="B79">
+      <c r="C79">
         <v>6.1981659999999996</v>
       </c>
-      <c r="C79">
+      <c r="D79">
         <v>6.1210240000000002</v>
       </c>
-      <c r="D79">
+      <c r="E79">
         <v>8.8091709999999992</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80">
+    <row r="80" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B80">
         <v>1.95</v>
       </c>
-      <c r="B80">
+      <c r="C80">
         <v>7.1355560000000002</v>
       </c>
-      <c r="C80">
+      <c r="D80">
         <v>6.9935289999999997</v>
       </c>
-      <c r="D80">
+      <c r="E80">
         <v>8.5840460000000007</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A81">
+    <row r="81" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B81">
         <v>2</v>
       </c>
-      <c r="B81">
+      <c r="C81">
         <v>8.1346969999999992</v>
       </c>
-      <c r="C81">
+      <c r="D81">
         <v>7.9234299999999998</v>
       </c>
-      <c r="D81">
+      <c r="E81">
         <v>7.760141</v>
       </c>
     </row>
